--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,17 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782AB8E5-ECEA-4032-8E40-F4A5699EB024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D75A0A-9EA5-48DD-92BD-5AF9224F0F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="1335" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$2:$D$81</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,11 +39,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e</t>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -401,7 +397,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -410,7 +406,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
